--- a/Tabellen/Univariate.xlsx
+++ b/Tabellen/Univariate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Spalte</t>
   </si>
@@ -44,7 +44,16 @@
     <t xml:space="preserve">linke_prop</t>
   </si>
   <si>
-    <t xml:space="preserve">ausl_proz</t>
+    <t xml:space="preserve">spd_prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b90_prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdp_prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union_prop</t>
   </si>
 </sst>
 </file>
@@ -407,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6202424920278</v>
+        <v>12.6</v>
       </c>
       <c r="C2" t="n">
-        <v>4.91380437910377</v>
+        <v>4.9</v>
       </c>
       <c r="D2" t="n">
-        <v>9.09280425678132</v>
+        <v>9.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.3274473031727</v>
+        <v>11.3</v>
       </c>
       <c r="F2" t="n">
-        <v>14.0175059122453</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>35.0170460723674</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>5.37361060522169</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -433,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>9.17324268167803</v>
+        <v>9.2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.13449926339018</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="n">
-        <v>5.95489501898944</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>6.99892202659001</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0499379918931</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>28.8763057435946</v>
+        <v>28.9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.74388001535914</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -459,25 +468,103 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1056856187291</v>
+        <v>20.4</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.4</v>
+        <v>15.5</v>
       </c>
       <c r="E4" t="n">
-        <v>9.4</v>
+        <v>20.3</v>
       </c>
       <c r="F4" t="n">
-        <v>12.7</v>
+        <v>24.8</v>
       </c>
       <c r="G4" t="n">
-        <v>31.4</v>
+        <v>37.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.39554885354902</v>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>

--- a/Tabellen/Univariate.xlsx
+++ b/Tabellen/Univariate.xlsx
@@ -416,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="C2" t="n">
-        <v>4.9</v>
+        <v>4.91</v>
       </c>
       <c r="D2" t="n">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="E2" t="n">
-        <v>11.3</v>
+        <v>11.33</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>35.02</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="3">
@@ -442,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>9.2</v>
+        <v>9.17</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="G3" t="n">
-        <v>28.9</v>
+        <v>28.88</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>20.4</v>
+        <v>20.45</v>
       </c>
       <c r="C4" t="n">
         <v>7.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5</v>
+        <v>15.54</v>
       </c>
       <c r="E4" t="n">
-        <v>20.3</v>
+        <v>20.34</v>
       </c>
       <c r="F4" t="n">
         <v>24.8</v>
       </c>
       <c r="G4" t="n">
-        <v>37.4</v>
+        <v>37.39</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5">
@@ -500,19 +500,19 @@
         <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="F5" t="n">
         <v>11.3</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>21.01</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10.6</v>
+        <v>10.55</v>
       </c>
       <c r="C6" t="n">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>8.51</v>
       </c>
       <c r="E6" t="n">
-        <v>10.3</v>
+        <v>10.33</v>
       </c>
       <c r="F6" t="n">
-        <v>12.5</v>
+        <v>12.53</v>
       </c>
       <c r="G6" t="n">
-        <v>19.6</v>
+        <v>19.62</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>32.6</v>
+        <v>32.56</v>
       </c>
       <c r="C7" t="n">
-        <v>13.8</v>
+        <v>13.78</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3</v>
+        <v>28.34</v>
       </c>
       <c r="E7" t="n">
-        <v>32.5</v>
+        <v>32.51</v>
       </c>
       <c r="F7" t="n">
-        <v>36.9</v>
+        <v>36.87</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7</v>
+        <v>52.73</v>
       </c>
       <c r="H7" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>
